--- a/Assets/Resources/ExcelDB/Dialog.xlsx
+++ b/Assets/Resources/ExcelDB/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrwh\OneDrive\문서\GitHub\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045DE059-2B00-4505-819F-12288CB02039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464CA6FA-EBCE-4F3A-A48A-A4953584932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="300" windowWidth="29010" windowHeight="15360" xr2:uid="{3E1520F0-0D86-45AB-A9AD-F526B6BD53CA}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3E1520F0-0D86-45AB-A9AD-F526B6BD53CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/Talk/Chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ImageColor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,22 +151,6 @@
   </si>
   <si>
     <t>클라리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${Name}이 내 이름이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${Name}</t>
-  </si>
-  <si>
-    <t>${Name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저.. 저는 클라리스.. 인데요…
-기억이 안나시나요…? ${Name}님..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,6 +189,24 @@
   <si>
     <t>설명은 나중에 해드릴테니깐!
 잠시 몸 좀 빌리겠습니다..!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저.. 저는 클라리스.. 인데요…
+기억이 안나시나요…? {Name}님..</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+  </si>
+  <si>
+    <t>{Name}이 내 이름이야?</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아악! 아니야!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B899FA-AB0F-4D81-8FCD-46739F7A3703}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -642,10 +640,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -694,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -715,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -738,10 +736,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -767,13 +762,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -796,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -825,13 +817,13 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -854,16 +846,13 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -886,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -912,19 +901,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -944,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -973,19 +959,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1005,16 +988,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1037,10 +1020,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1063,19 +1046,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1095,16 +1075,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1124,16 +1104,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1155,6 +1132,18 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
       <c r="K18">
         <v>0</v>
       </c>
@@ -1172,6 +1161,18 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -1189,6 +1190,15 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -1205,6 +1215,18 @@
       </c>
       <c r="D21">
         <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/Assets/Resources/ExcelDB/Dialog.xlsx
+++ b/Assets/Resources/ExcelDB/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrwh\OneDrive\문서\GitHub\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464CA6FA-EBCE-4F3A-A48A-A4953584932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6CB81-2A5D-4F35-829D-1CF42973EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3E1520F0-0D86-45AB-A9AD-F526B6BD53CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,40 @@
   </si>
   <si>
     <t>으아악! 아니야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TalkSprite/Fleur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플뢰르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안.. 갑자기 데자뷰가..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐..뭔가? 갑자기…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨우 저 정도 적들에게 쓰러지다니..
+내 체면이 말이 아니군…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인의 능력치 강화나 스크롤은 제대로 구한건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우두머리들은 강력하니 그때 만큼은
+직접 몸을 조종하는게 좋을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 다시 한 번 가보자고.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +631,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -1245,6 +1279,18 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -1262,11 +1308,23 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1278,6 +1336,18 @@
       </c>
       <c r="D24">
         <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1296,11 +1366,23 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
       <c r="K25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1312,6 +1394,18 @@
       </c>
       <c r="D26">
         <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1330,6 +1424,18 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
       <c r="K27">
         <v>0</v>
       </c>
@@ -1339,10 +1445,10 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1356,10 +1462,10 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1373,10 +1479,10 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>1</v>

--- a/Assets/Resources/ExcelDB/Dialog.xlsx
+++ b/Assets/Resources/ExcelDB/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrwh\OneDrive\문서\GitHub\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6CB81-2A5D-4F35-829D-1CF42973EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9066B5-E34E-4D33-B0E1-18E5E4B1E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3E1520F0-0D86-45AB-A9AD-F526B6BD53CA}"/>
   </bookViews>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B899FA-AB0F-4D81-8FCD-46739F7A3703}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
